--- a/spec/files/template_input_0.1.10.xlsx
+++ b/spec/files/template_input_0.1.10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$I$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Y$15</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="526">
   <si>
     <t>type</t>
   </si>
@@ -1594,6 +1594,18 @@
   </si>
   <si>
     <t>This is the name used to identify the compute cluster (snake-cased). If you use this name in other spreadsheets, then you are able to submit multiple jobs to the same compute cluster.</t>
+  </si>
+  <si>
+    <t>Continuous Variable Description</t>
+  </si>
+  <si>
+    <t>Discrete Variable Description</t>
+  </si>
+  <si>
+    <t>Discrete Values</t>
+  </si>
+  <si>
+    <t>Discrete Weights</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1665,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1696,6 +1708,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1706,7 +1730,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1323">
+  <cellStyleXfs count="1333">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3030,8 +3054,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3100,8 +3134,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1323">
+  <cellStyles count="1333">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3763,6 +3801,11 @@
     <cellStyle name="Followed Hyperlink" xfId="1318" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1320" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1332" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4424,6 +4467,11 @@
     <cellStyle name="Hyperlink" xfId="1317" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1319" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1331" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4759,8 +4807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5101,7 +5149,7 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lookups!$A$2:$A$5</xm:f>
@@ -5125,11 +5173,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5143,14 +5191,17 @@
     <col min="7" max="7" width="11.5" style="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="5"/>
-    <col min="10" max="15" width="11.5" style="1"/>
-    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.5" style="1"/>
-    <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.5" style="1"/>
+    <col min="10" max="13" width="11.5" style="1"/>
+    <col min="14" max="14" width="15" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.5" style="1"/>
+    <col min="18" max="18" width="46.1640625" style="1" customWidth="1"/>
+    <col min="19" max="21" width="11.5" style="1"/>
+    <col min="22" max="22" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18">
+    <row r="1" spans="1:24" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -5162,23 +5213,29 @@
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="J1" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="O1" s="33"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
       <c r="T1" s="29"/>
       <c r="U1" s="29"/>
       <c r="V1" s="29"/>
-    </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+    </row>
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -5191,7 +5248,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="45">
+    <row r="3" spans="1:24" s="16" customFormat="1" ht="45">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -5231,32 +5288,38 @@
       <c r="M3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="18" t="s">
+        <v>524</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>525</v>
+      </c>
+      <c r="P3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="V3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="W3" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="b">
         <v>0</v>
       </c>
@@ -5267,7 +5330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:24">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -5286,10 +5349,12 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="b">
         <v>1</v>
       </c>
@@ -5310,10 +5375,12 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>25</v>
@@ -5341,10 +5408,12 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>26</v>
@@ -5378,13 +5447,15 @@
         <f>(K8-J8)/6</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>25</v>
@@ -5409,10 +5480,12 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>25</v>
@@ -5437,10 +5510,12 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -5465,10 +5540,12 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>25</v>
@@ -5493,10 +5570,12 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>25</v>
@@ -5521,10 +5600,12 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14"/>
       <c r="B14" t="s">
         <v>25</v>
@@ -5549,10 +5630,12 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15"/>
       <c r="B15" t="s">
         <v>25</v>
@@ -5577,10 +5660,12 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" customFormat="1">
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" customFormat="1">
       <c r="A16" t="b">
         <v>1</v>
       </c>
@@ -5594,7 +5679,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:14" customFormat="1">
+    <row r="17" spans="1:16" customFormat="1">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -5617,7 +5702,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:14" customFormat="1">
+    <row r="18" spans="1:16" customFormat="1">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -5649,11 +5734,13 @@
         <f>(K18-J18)/6</f>
         <v>5</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:14" customFormat="1">
+    <row r="19" spans="1:16" customFormat="1">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -5673,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" customFormat="1">
+    <row r="20" spans="1:16" customFormat="1">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -5693,7 +5780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" customFormat="1">
+    <row r="21" spans="1:16" customFormat="1">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -5713,7 +5800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:16">
       <c r="A22" t="b">
         <v>1</v>
       </c>
@@ -5731,7 +5818,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:16">
       <c r="A23"/>
       <c r="B23" t="s">
         <v>26</v>
@@ -5765,11 +5852,13 @@
         <f>(K23-J23)/6</f>
         <v>43.166666666666664</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:16">
       <c r="A24" t="b">
         <v>1</v>
       </c>
@@ -5787,7 +5876,7 @@
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:16">
       <c r="A25"/>
       <c r="B25" t="s">
         <v>26</v>
@@ -5821,11 +5910,13 @@
         <f>(K25-J25)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:16">
       <c r="A26"/>
       <c r="B26" t="s">
         <v>25</v>
@@ -5847,7 +5938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:16">
       <c r="A27"/>
       <c r="B27" t="s">
         <v>25</v>
@@ -5872,7 +5963,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:16">
       <c r="A28" t="b">
         <v>1</v>
       </c>
@@ -5890,7 +5981,7 @@
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:16">
       <c r="A29"/>
       <c r="B29" t="s">
         <v>26</v>
@@ -5924,11 +6015,13 @@
         <f>(K29-J29)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:16">
       <c r="A30"/>
       <c r="B30" t="s">
         <v>25</v>
@@ -5950,7 +6043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:16">
       <c r="A31"/>
       <c r="B31" t="s">
         <v>25</v>
@@ -5976,9 +6069,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:W15"/>
+  <autoFilter ref="A2:Y15"/>
   <mergeCells count="1">
-    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="S1:X1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/spec/files/template_input_0.1.10.xlsx
+++ b/spec/files/template_input_0.1.10.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19720" activeTab="2"/>
+    <workbookView xWindow="5600" yWindow="5600" windowWidth="20000" windowHeight="10460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="529">
   <si>
     <t>type</t>
   </si>
@@ -1606,6 +1606,15 @@
   </si>
   <si>
     <t>Discrete Weights</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>function group</t>
   </si>
 </sst>
 </file>
@@ -1665,7 +1674,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1720,6 +1729,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3065,7 +3080,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3131,13 +3146,20 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1333">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5175,7 +5197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
@@ -5213,27 +5235,27 @@
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>522</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31" t="s">
         <v>523</v>
       </c>
-      <c r="O1" s="33"/>
+      <c r="O1" s="32"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
     </row>
     <row r="2" spans="1:24" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
@@ -6087,9 +6109,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6120,35 +6142,44 @@
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="34" t="s">
         <v>489</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="34" t="s">
         <v>490</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="34" t="s">
         <v>491</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="34" t="s">
         <v>492</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="34" t="s">
         <v>493</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>526</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>527</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" ht="15">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+    <row r="3" spans="1:9" s="16" customFormat="1" ht="30">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35" t="s">
         <v>494</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="35" t="s">
         <v>495</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="35" t="s">
+        <v>528</v>
+      </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
